--- a/data/topic_allocation.xlsx
+++ b/data/topic_allocation.xlsx
@@ -14,39 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>top_weighted_words</t>
   </si>
   <si>
-    <t>i, on, tâm_lí, đọc, lạc_quan, chữ_thập_đỏ, cục, tiêu_cực, tài, xóa_đói, mãn_tính, máy, trò_chuyện, sách, mật, khuyến, béo, trừ, kích_thích, thanh_tra</t>
-  </si>
-  <si>
-    <t>cholesterol, nguy_hiểm, qụy, đột, a, chứa, biểu_hiện, chất_béo, giải_trí, ưu_tiên, khô, dự_kiến, dưỡng_chất, rác_thải, khoáng_chất, chỉ_số, vui_chơi, công_nhận, cân_bằng, hạt</t>
-  </si>
-  <si>
-    <t>trái_cây, xấu, canh, cổ_chân, thi_đấu, nhồi, khó_chịu, trung, môn, nhẹ, tắm, trang, dạng, bóng_bàn, như_vậy, cờ_tướng, nhẹ_nhàng, cầu_lông, khuyến_cáo, hình_ảnh</t>
-  </si>
-  <si>
-    <t>bụng, bớt, hội_đồng, vi_khuẩn, một_số, tổng, lao_động_sản_xuất, nhân_lực, nhân_ái, phình, kèm, hỗ_trợ, kí_kết, có_thể, tình_nguyện_viên, hôm_nay, ts, điều_chỉnh, và, phạm_vi</t>
-  </si>
-  <si>
-    <t>động_mạch, xơ_vữa, mạch, mạch_máu, miệng, vợ, sa_sút_trí_tuệ, chồng, kiến_nghị, tuổi_tác, vĩnh_phúc, suy, nhưng, lo, cúm, lo_lắng, nghiêm_trọng, con_người, trời, lưu_thông</t>
-  </si>
-  <si>
-    <t>nhiễm_trùng, gan, bệnh_lí, tiểu, khhgđ, lưu_ý, thận, biến_chứng, phức_tạp, chẩn_đoán, tế_bào, sự, biển, diễn_biến, điều_dưỡng, lây_nhiễm, ds, nhanh_chóng, bài, mâu_thuẫn</t>
-  </si>
-  <si>
-    <t>lạnh, dấu_hiệu, tiết_kiệm, quốc_hội, trực_tuyến, rượu, tổng_kết, nấm, huyện_ủy, đen, đề, phép, nguyện_vọng, hạ, biểu_diễn, kết_nạp, hòa_nhập, mặc, tiêu, rút</t>
-  </si>
-  <si>
-    <t>dạ_dày, đề_kháng, neo_đơn, chú_ý, dễ_dàng, dầu, táo_bón, chi, nên, sửa_đổi, động_vật, nghệ, tiến_sĩ, canxi, vắcxin, quy_chế, đẩy, tạm, mạng, đại_đoàn_kết</t>
-  </si>
-  <si>
-    <t>muối, mũi, giãn, bình_thường, thời_tiết, xét_nghiệm, gạo, thầy_thuốc, giấc_ngủ, bày_tỏ, tình_cảm, chào_mừng, virus, thanh_xuân, suy_nghĩ, sáo, nhức, ngon, trở_nên, nắng_nóng</t>
-  </si>
-  <si>
-    <t>hấp_thu, bạn_bè, cơ_quan_chức_năng, kết_nối, lão, hà_tĩnh, ngăn_ngừa, rrtt, tổ_hội, phương_tiện, chóng_mặt, chấn_thương, năng_lượng, nđ, cây_xanh, quên, chương, bối_cảnh, song, đa</t>
+    <t>dạ_dày, mũi, vĩnh_phúc, xét_nghiệm, tình_nguyện, tổng_hợp, chẩn_đoán, dậy, đơn_giản, vi_khuẩn, trân_trọng, tai, họng, vào_cuộc, tổng_quát, chụp, quý_báu, miễn, tài_nguyên, soát</t>
+  </si>
+  <si>
+    <t>đề_kháng, biển, chủ_đề, biểu_diễn, canxi, kết_nạp, xem_xét, biên_giới, đăng_kí, nguyễn_văn, đảo, hợp_pháp, ruột, ánh_sáng, bch, thông, bộ_đội, đau_ốm, khiếu_nại, nỗi</t>
+  </si>
+  <si>
+    <t>đề, trò_chuyện, đường_huyết, tâm_huyết, phong_cách, liêm, sẵn, lo_lắng, xiii, phụ, nhà_thuốc, cao_cấp, tự_chủ, đèn, chuyên_nghiệp, chí, nói_chuyện, khâu, trong_lành, mục</t>
+  </si>
+  <si>
+    <t>giấy_khen, rác_thải, cụm, đón, thiết_kế, thu_gom, bằng_khen, kiêm, dao, chuyến, chứng_nhận, rủi_ro, nghệ_an, phân_loại, lú_lẫn, cẩm_phả, rác, đối_tác, vùng_cao, nhựa</t>
+  </si>
+  <si>
+    <t>gan, trở_nên, bột, đồ, nhiễm, nước_ngoài, ngắn, tâm_sự, liều, cấp_uỷ, ấm_no, bí_quyết, sure, 1,2, lhpn, đảm_nhận, già_làng, hộp, hội_diễn, bổ</t>
+  </si>
+  <si>
+    <t>tâm_thần, trầm_cảm, ngừng, bậc, hôm_nay, học_hỏi, lão, phê_duyệt, to_lớn, tự_hào, lịch_sử, chỉ_thị, trình_độ, tập_hợp, cao_niên, vất_vả, cà_mau, vinh_dự, hồng, tri</t>
+  </si>
+  <si>
+    <t>chậm, kết_nối, nhân_ái, lao_động_sản_xuất, chấn_thương, thực_trạng, tiền_mặt, cuộc_đời, năng_suất, già_yếu, đ, nhạc, tri_thức, khác_biệt, sở_thích, dụng_cụ, mồ_côi, quy, kiểu, cần_cù</t>
+  </si>
+  <si>
+    <t>tổng_kết, tiểu, thẩm_quyền, đấu_tranh, tiết_kiệm, nguyện_vọng, chuyên_đề, phòng_bệnh, công_nghiệp, điều_tra, bồi_dưỡng, thương_mại, phương_thức, sơ_kết, mặt_khác, con_trai, kết_luận, cấp_phát, tw, tâm_tư</t>
+  </si>
+  <si>
+    <t>giãn, con_người, đảng_ủy, thư, trừ, cam, lãi, khích_lệ, cựu_chiến_binh, quy_trình, tù, phó_bí_thư, bưởi, phó_ban, trưởng_thôn, bước_đầu, địa_chỉ, hồi_phục, tổng_giám_đốc, bùi</t>
+  </si>
+  <si>
+    <t>phó_trưởng, bóng, thanh_bình, suy_nghĩ, tín_dụng, dự_báo, tiến, hạ_tầng, phương_án, thiên_nhiên, mặn, khí, sở_hữu, ngoại, sôi_động, thanh_long, ngành_nghề, chính_xác, di_chuyển, tương_trợ</t>
+  </si>
+  <si>
+    <t>kêu_gọi, kiến_nghị, nghĩa, tổng_bí_thư, thiệt_hại, học_sinh, lũ, tự_nhiên, cư_trú, kí, giảm_thiểu, đáp, đền, khang_trang, kg, mẫu, hcm, công_văn, nhà_máy, ơn</t>
+  </si>
+  <si>
+    <t>cơ_quan_chức_năng, điều_dưỡng, vị_thế, khhgđ, ngàn, qua_đời, cơ_chế, lâm_sàng, can_thiệp, mất_ngủ, nửa, kiên_trì, tận_hưởng, bài_bản, phúng_viếng, hữu_cơ, thấm, liệt, cứng, cột_sống</t>
+  </si>
+  <si>
+    <t>lây_nhiễm, tiến_bộ, kí_kết, lạc_quan, tham_quan, trở_lại, gắn_kết, tập_đoàn, sài_gòn, chuyển_giao, cư_dân, nghỉ_ngơi, hình_sự, trình, yêu_đời, di_tích, bảng, quế, bài_học, thỏa_thuận</t>
+  </si>
+  <si>
+    <t>phút, cân, bụng, tắm, thị_lực, trong_sạch, dừng, hòa_thuận, góp_ý, vòng, xoa_bóp, cứu, tiêu, đảm_nhiệm, co, hè, đạp, lịch, cương_vị, kinh</t>
+  </si>
+  <si>
+    <t>giấc_ngủ, sâu_rộng, tin_tưởng, thời_tiết, ngon, cục, phép, khóa, qđ, mâu_thuẫn, căn_cứ, quần_chúng, thuận, không_gian, đảng_bộ, linh_hoạt, quốc_phòng, thắng_lợi, ttg, lâu_dài</t>
+  </si>
+  <si>
+    <t>thận, tnhh, thực_tiễn, tgpl, đất_đai, tổng_trị_giá, án, chi_hội_trưởng, đánh, cảm_hóa, tâm_lý, bình_thuận, lầm_lỗi, đổi, chi_nhánh, chuyên_ngành, mâu_thuẫn, ccb, bắc_bình, chăn</t>
+  </si>
+  <si>
+    <t>tài_liệu, lá, tầng_lớp, noi, đại_việt, bàn, thiện, nguyện, cổ_phần, hợp_lí, nghệ_nhân, hương, hoà_giải, ô_nhiễm, xứng_đáng, rách, ốm, ca_ngợi, cháy, chỉnh_hình</t>
+  </si>
+  <si>
+    <t>phức_tạp, tâm_lí, dễ_dàng, tỉnh_ủy, diễn_biến, nghiêm, hải_dương, quảng_trị, hoàng, đục, cổ, tn, kháng_chiến, quảng_bình, đôi_khi, tương_tự, mờ, mt, hi_sinh, phối_hợp_số</t>
+  </si>
+  <si>
+    <t>nghị_định, trang, giới_thiệu, nghề_nghiệp, thân_thiện, nđ, việt, bs, rừng, văn_phòng, toàn_bộ, vận_hành, nội, vạn, khởi_nghiệp, nhân_đạo, độc_lập, dữ_liệu, công_bố, vinh_danh</t>
+  </si>
+  <si>
+    <t>chính_đáng, bóng_bàn, tỷ, cờ_tướng, xóa_đói, thơ, vũ, cầu_lông, sinh_sống, xe_đạp, mức_sống, yoga, công_nhân, giải_thích, lao_động_sản_xuất, hiếu, ngô, chuối, hôn_nhân, phấn_chấn</t>
   </si>
 </sst>
 </file>
@@ -404,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,6 +525,86 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/topic_allocation.xlsx
+++ b/data/topic_allocation.xlsx
@@ -14,69 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>prob</t>
+  </si>
   <si>
     <t>top_weighted_words</t>
   </si>
   <si>
-    <t>dạ_dày, mũi, vĩnh_phúc, xét_nghiệm, tình_nguyện, tổng_hợp, chẩn_đoán, dậy, đơn_giản, vi_khuẩn, trân_trọng, tai, họng, vào_cuộc, tổng_quát, chụp, quý_báu, miễn, tài_nguyên, soát</t>
-  </si>
-  <si>
-    <t>đề_kháng, biển, chủ_đề, biểu_diễn, canxi, kết_nạp, xem_xét, biên_giới, đăng_kí, nguyễn_văn, đảo, hợp_pháp, ruột, ánh_sáng, bch, thông, bộ_đội, đau_ốm, khiếu_nại, nỗi</t>
-  </si>
-  <si>
-    <t>đề, trò_chuyện, đường_huyết, tâm_huyết, phong_cách, liêm, sẵn, lo_lắng, xiii, phụ, nhà_thuốc, cao_cấp, tự_chủ, đèn, chuyên_nghiệp, chí, nói_chuyện, khâu, trong_lành, mục</t>
-  </si>
-  <si>
-    <t>giấy_khen, rác_thải, cụm, đón, thiết_kế, thu_gom, bằng_khen, kiêm, dao, chuyến, chứng_nhận, rủi_ro, nghệ_an, phân_loại, lú_lẫn, cẩm_phả, rác, đối_tác, vùng_cao, nhựa</t>
-  </si>
-  <si>
-    <t>gan, trở_nên, bột, đồ, nhiễm, nước_ngoài, ngắn, tâm_sự, liều, cấp_uỷ, ấm_no, bí_quyết, sure, 1,2, lhpn, đảm_nhận, già_làng, hộp, hội_diễn, bổ</t>
-  </si>
-  <si>
-    <t>tâm_thần, trầm_cảm, ngừng, bậc, hôm_nay, học_hỏi, lão, phê_duyệt, to_lớn, tự_hào, lịch_sử, chỉ_thị, trình_độ, tập_hợp, cao_niên, vất_vả, cà_mau, vinh_dự, hồng, tri</t>
-  </si>
-  <si>
-    <t>chậm, kết_nối, nhân_ái, lao_động_sản_xuất, chấn_thương, thực_trạng, tiền_mặt, cuộc_đời, năng_suất, già_yếu, đ, nhạc, tri_thức, khác_biệt, sở_thích, dụng_cụ, mồ_côi, quy, kiểu, cần_cù</t>
-  </si>
-  <si>
-    <t>tổng_kết, tiểu, thẩm_quyền, đấu_tranh, tiết_kiệm, nguyện_vọng, chuyên_đề, phòng_bệnh, công_nghiệp, điều_tra, bồi_dưỡng, thương_mại, phương_thức, sơ_kết, mặt_khác, con_trai, kết_luận, cấp_phát, tw, tâm_tư</t>
-  </si>
-  <si>
-    <t>giãn, con_người, đảng_ủy, thư, trừ, cam, lãi, khích_lệ, cựu_chiến_binh, quy_trình, tù, phó_bí_thư, bưởi, phó_ban, trưởng_thôn, bước_đầu, địa_chỉ, hồi_phục, tổng_giám_đốc, bùi</t>
-  </si>
-  <si>
-    <t>phó_trưởng, bóng, thanh_bình, suy_nghĩ, tín_dụng, dự_báo, tiến, hạ_tầng, phương_án, thiên_nhiên, mặn, khí, sở_hữu, ngoại, sôi_động, thanh_long, ngành_nghề, chính_xác, di_chuyển, tương_trợ</t>
-  </si>
-  <si>
-    <t>kêu_gọi, kiến_nghị, nghĩa, tổng_bí_thư, thiệt_hại, học_sinh, lũ, tự_nhiên, cư_trú, kí, giảm_thiểu, đáp, đền, khang_trang, kg, mẫu, hcm, công_văn, nhà_máy, ơn</t>
-  </si>
-  <si>
-    <t>cơ_quan_chức_năng, điều_dưỡng, vị_thế, khhgđ, ngàn, qua_đời, cơ_chế, lâm_sàng, can_thiệp, mất_ngủ, nửa, kiên_trì, tận_hưởng, bài_bản, phúng_viếng, hữu_cơ, thấm, liệt, cứng, cột_sống</t>
-  </si>
-  <si>
-    <t>lây_nhiễm, tiến_bộ, kí_kết, lạc_quan, tham_quan, trở_lại, gắn_kết, tập_đoàn, sài_gòn, chuyển_giao, cư_dân, nghỉ_ngơi, hình_sự, trình, yêu_đời, di_tích, bảng, quế, bài_học, thỏa_thuận</t>
-  </si>
-  <si>
-    <t>phút, cân, bụng, tắm, thị_lực, trong_sạch, dừng, hòa_thuận, góp_ý, vòng, xoa_bóp, cứu, tiêu, đảm_nhiệm, co, hè, đạp, lịch, cương_vị, kinh</t>
-  </si>
-  <si>
-    <t>giấc_ngủ, sâu_rộng, tin_tưởng, thời_tiết, ngon, cục, phép, khóa, qđ, mâu_thuẫn, căn_cứ, quần_chúng, thuận, không_gian, đảng_bộ, linh_hoạt, quốc_phòng, thắng_lợi, ttg, lâu_dài</t>
-  </si>
-  <si>
-    <t>thận, tnhh, thực_tiễn, tgpl, đất_đai, tổng_trị_giá, án, chi_hội_trưởng, đánh, cảm_hóa, tâm_lý, bình_thuận, lầm_lỗi, đổi, chi_nhánh, chuyên_ngành, mâu_thuẫn, ccb, bắc_bình, chăn</t>
-  </si>
-  <si>
-    <t>tài_liệu, lá, tầng_lớp, noi, đại_việt, bàn, thiện, nguyện, cổ_phần, hợp_lí, nghệ_nhân, hương, hoà_giải, ô_nhiễm, xứng_đáng, rách, ốm, ca_ngợi, cháy, chỉnh_hình</t>
-  </si>
-  <si>
-    <t>phức_tạp, tâm_lí, dễ_dàng, tỉnh_ủy, diễn_biến, nghiêm, hải_dương, quảng_trị, hoàng, đục, cổ, tn, kháng_chiến, quảng_bình, đôi_khi, tương_tự, mờ, mt, hi_sinh, phối_hợp_số</t>
-  </si>
-  <si>
-    <t>nghị_định, trang, giới_thiệu, nghề_nghiệp, thân_thiện, nđ, việt, bs, rừng, văn_phòng, toàn_bộ, vận_hành, nội, vạn, khởi_nghiệp, nhân_đạo, độc_lập, dữ_liệu, công_bố, vinh_danh</t>
-  </si>
-  <si>
-    <t>chính_đáng, bóng_bàn, tỷ, cờ_tướng, xóa_đói, thơ, vũ, cầu_lông, sinh_sống, xe_đạp, mức_sống, yoga, công_nhân, giải_thích, lao_động_sản_xuất, hiếu, ngô, chuối, hôn_nhân, phấn_chấn</t>
+    <t>quần, rrtt, thấm, caryn, hòa_nhập, dán, bài_tiết, siêu, nhân_dân_tệ, tự_chủ, dvcđ, mỏng, đậu_nành, vn, mặc, karaoke, hải_phòng, đất_đai, biển, tã_giấy</t>
+  </si>
+  <si>
+    <t>ho, tai_biến, trị_liệu, thanh_xuân, thầy_thuốc, thở, bs, diện_tích, chẩn_đoán, bệnh_lí, bv, chuyên_khoa, sỏi, xét_nghiệm, ao, máy, htx, hữu_cơ, đông_y, nhà_thuốc</t>
+  </si>
+  <si>
+    <t>xe_buýt, té, hạ, hành_khách, tài_nguyên, vé, tổng_bí_thư, khí_hậu, khai_sinh, nhật, thực_tập_sinh, phòng_khám, điện_thoại, cử_tri, đường_huyết, giấy_tờ, sốt, kiến_nghị, cặp, phú_trọng</t>
+  </si>
+  <si>
+    <t>tự_quản, ứng_xử, rác_thải, thu_gom, xử_lí, gia, rác, pctt, antt, dòng_họ, ngõ, bố_mẹ, miệng, đọc, cây_xanh, sách, ma_túy, phân_loại, quan_hệ, phim</t>
+  </si>
+  <si>
+    <t>thính_lực, tai, sáo, lây_nhiễm, thích_ứng, chiến_lược, tư_nhân, tổng_cục, nhân_lực, thân_thiện, nấm, nđ, đa_số, bố_trí, dự_báo, bớt, thời_kỳ, ưu_đãi, tương_lai, chính_thức</t>
+  </si>
+  <si>
+    <t>thực_vật, dưỡng_chất, táo_bón, xơ, nhai, vĩnh_phúc, chất_béo, htx, ruột, khoáng_chất, án_phí, dao, bụng, tiêu_hoá, calosure, omega, chuyển_hóa, miễn, động_vật, cam</t>
+  </si>
+  <si>
+    <t>ngày_công, kiểu_mẫu, trang_trại, khen, tài, giấy_khen, chính_đáng, lao_động_sản_xuất, làm_giàu, khuyến, nòng_cốt, vị_thế, chi_cục, mâu_thuẫn, xóa_đói, ban_công_tác, sôi_nổi, tổ_hội, huyện_ủy, kiện_toàn</t>
+  </si>
+  <si>
+    <t>sinh_kế, nutifood, muối, pháp_lý, trưa, sài_gòn, mũi, lạnh, bình_thường, trí_nhớ, miệng, vaccine, virus, xơ_vữa, tâm_thần, mạch, bò, nhồi, đề_kháng, hại</t>
+  </si>
+  <si>
+    <t>tâm_thần, tgpl, singapore, hàn_quốc, nhà_máy, cs, cư_dân, nghỉ_dưỡng, không_gian, pv, tắm, dự_báo, sa_sút_trí_tuệ, onsen, thiếu_hụt, tâm_trí, ecopark, trong_lành, yếu_đuối, gas</t>
+  </si>
+  <si>
+    <t>liên_hoan, tiết_mục, thương_hiệu, rạng_đông, hành_trình, nhân_ái, đồng_diễn, thông_điệp, chào_mừng, máy_đo, thiệt_hại, vinhomes, cao_niên, biểu_diễn, liêm, cao_cấp, vắc, nước_nhà, hôm_nay, lũ</t>
   </si>
 </sst>
 </file>
@@ -434,175 +407,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2">
+        <v>0.06338244858247551</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3">
+        <v>0.07958891982471013</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4">
+        <v>0.08325664291590106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5">
+        <v>0.07196068792729471</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6">
+        <v>0.1236115059409757</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7">
+        <v>0.08423441261501131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8">
+        <v>0.2267091311875706</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9">
+        <v>0.09957259280063306</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10">
+        <v>0.05925969600453467</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B11">
+        <v>0.09341874449115489</v>
+      </c>
+      <c r="C11" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/topic_allocation.xlsx
+++ b/data/topic_allocation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>prob</t>
   </si>
@@ -22,34 +22,49 @@
     <t>top_weighted_words</t>
   </si>
   <si>
-    <t>quần, rrtt, thấm, caryn, hòa_nhập, dán, bài_tiết, siêu, nhân_dân_tệ, tự_chủ, dvcđ, mỏng, đậu_nành, vn, mặc, karaoke, hải_phòng, đất_đai, biển, tã_giấy</t>
-  </si>
-  <si>
-    <t>ho, tai_biến, trị_liệu, thanh_xuân, thầy_thuốc, thở, bs, diện_tích, chẩn_đoán, bệnh_lí, bv, chuyên_khoa, sỏi, xét_nghiệm, ao, máy, htx, hữu_cơ, đông_y, nhà_thuốc</t>
-  </si>
-  <si>
-    <t>xe_buýt, té, hạ, hành_khách, tài_nguyên, vé, tổng_bí_thư, khí_hậu, khai_sinh, nhật, thực_tập_sinh, phòng_khám, điện_thoại, cử_tri, đường_huyết, giấy_tờ, sốt, kiến_nghị, cặp, phú_trọng</t>
-  </si>
-  <si>
-    <t>tự_quản, ứng_xử, rác_thải, thu_gom, xử_lí, gia, rác, pctt, antt, dòng_họ, ngõ, bố_mẹ, miệng, đọc, cây_xanh, sách, ma_túy, phân_loại, quan_hệ, phim</t>
-  </si>
-  <si>
-    <t>thính_lực, tai, sáo, lây_nhiễm, thích_ứng, chiến_lược, tư_nhân, tổng_cục, nhân_lực, thân_thiện, nấm, nđ, đa_số, bố_trí, dự_báo, bớt, thời_kỳ, ưu_đãi, tương_lai, chính_thức</t>
-  </si>
-  <si>
-    <t>thực_vật, dưỡng_chất, táo_bón, xơ, nhai, vĩnh_phúc, chất_béo, htx, ruột, khoáng_chất, án_phí, dao, bụng, tiêu_hoá, calosure, omega, chuyển_hóa, miễn, động_vật, cam</t>
-  </si>
-  <si>
-    <t>ngày_công, kiểu_mẫu, trang_trại, khen, tài, giấy_khen, chính_đáng, lao_động_sản_xuất, làm_giàu, khuyến, nòng_cốt, vị_thế, chi_cục, mâu_thuẫn, xóa_đói, ban_công_tác, sôi_nổi, tổ_hội, huyện_ủy, kiện_toàn</t>
-  </si>
-  <si>
-    <t>sinh_kế, nutifood, muối, pháp_lý, trưa, sài_gòn, mũi, lạnh, bình_thường, trí_nhớ, miệng, vaccine, virus, xơ_vữa, tâm_thần, mạch, bò, nhồi, đề_kháng, hại</t>
-  </si>
-  <si>
-    <t>tâm_thần, tgpl, singapore, hàn_quốc, nhà_máy, cs, cư_dân, nghỉ_dưỡng, không_gian, pv, tắm, dự_báo, sa_sút_trí_tuệ, onsen, thiếu_hụt, tâm_trí, ecopark, trong_lành, yếu_đuối, gas</t>
-  </si>
-  <si>
-    <t>liên_hoan, tiết_mục, thương_hiệu, rạng_đông, hành_trình, nhân_ái, đồng_diễn, thông_điệp, chào_mừng, máy_đo, thiệt_hại, vinhomes, cao_niên, biểu_diễn, liêm, cao_cấp, vắc, nước_nhà, hôm_nay, lũ</t>
+    <t>pháp_lý, miệng, tâm_lí, phòng_khám, quy_hoạch, nhân_dân_tệ, đất_đai, tnhh, muối, chồng, quê, vợ, genki, nặng_nhọc, gốc, nhức, không_gian, công_nghiệp, mũi, buồn</t>
+  </si>
+  <si>
+    <t>sỏi, singapore, kỹ_thuật, bụng, thở, chẩn_đoán, mổ, nđ, ống, thận, biển, túi_mật, nhà_thuốc, ho, mật, vi_khuẩn, rong, mái, uti, cử_tri</t>
+  </si>
+  <si>
+    <t>nóng, quần, lạnh, sinh_kế, thấm, té, nấm, trưa, caryn, sốt, nhiệt_độ, mặc, hạt, bài_tiết, thiết_kế, tắm, dậy, tự_chủ, nắng_nóng, nghỉ_dưỡng</t>
+  </si>
+  <si>
+    <t>tổng_bí_thư, ấm_no, xiii, liên_hiệp, to_lớn, kiểu_mẫu, gặp_mặt, dòng_họ, quan_hệ, kính_trọng, rút, nutifood, karaoke, onsen, phú_trọng, tôn_vinh, liên, qđ, bình_định, vắc</t>
+  </si>
+  <si>
+    <t>tâm_thần, lây_nhiễm, muối, đông_y, máy, tổng_cục, cổ_chân, tâm_trí, xét_nghiệm, thầy_thuốc, bớt, loét, thay_thế, siêu_âm, trung_niên, thể, nhiễu, rối, chuyên_khoa, mũi</t>
+  </si>
+  <si>
+    <t>vĩnh_phúc, rạng_đông, cặp, tiết_mục, tham_nhũng, kinh_lạc, nước_nhà, thăng, đồng_diễn, đại_việt, liêm, kết_hôn, lịch_sử, chào_mừng, ấn_tượng, bình, tin_tưởng, cứu, hôm_nay, vũ</t>
+  </si>
+  <si>
+    <t>implant, hội_đồng, lừa_đảo, tt, máy_đo, cs, văn_hoá, app, yếu_đuối, khơng, sợ, tài_khoản, vắcxin, phvt, tpbank, trồng_răng, ưu_đãi, điều_chỉnh, kêu_gọi, xử_lí</t>
+  </si>
+  <si>
+    <t>rrtt, thi_đấu, môn, hòa_nhập, vận_động_viên, liên_hoan, cờ_tướng, cccd, thái_cực, câu_lạc_bộ, đạo, vắc, bóng_bàn, tdds, bạc_liêu, bổ_ích, kết_thúc, đồng_diễn, cụm, thái_bình</t>
+  </si>
+  <si>
+    <t>nhân_lực, phó_thủ_tướng, dự_báo, thương_hiệu, hành_trình, nhân_ái, hình_sự, tư_nhân, xem_xét, khhgđ, dự_thảo, hoàn_thiện, dân_tộc_thiểu_số, chính_thức, nghề_nghiệp, tín_dụng, ho, án, nhật, đào_ngọc_dung</t>
+  </si>
+  <si>
+    <t>tự_quản, ngày_công, giấy_khen, ban_công_tác, nòng_cốt, tổ_hội, mâu_thuẫn, chính_đáng, xóa_đói, huyện_ủy, lao_động_sản_xuất, ngõ, tổ_hòa, kiện_toàn, công_nhận, đán, rác_thải, đại_đoàn_kết, khuyến, xử_lí</t>
+  </si>
+  <si>
+    <t>cholesterol, chất_béo, thực_vật, dưỡng_chất, tai, chứa, thính_lực, canxi, xơ, khoáng_chất, táo_bón, động_mạch, đề_kháng, bột, dạ_dày, động_vật, ruột, gan, canh, nhai</t>
+  </si>
+  <si>
+    <t>sáo, thơ, biên_giới, sách, đọc, tạp_chí, cánh, ban_chấp_hành, thả, bố_mẹ, hòa_thuận, đảm_nhiệm, kiêm, khen, tổng_kết, cộng_tác_viên, nghiêm, nghệ_nhân, học_sinh, đèn</t>
+  </si>
+  <si>
+    <t>thiệt_hại, lũ, khai_sinh, quyên_góp, thùng, hậu_quả, pctt, gạo, yếu_phẩm, nhu, trừ, mì, pv, lợn, giấy_tờ, lãi, lợi_nhuận, kêu_gọi, htx, tôm</t>
+  </si>
+  <si>
+    <t>thân_thiện, sa_sút_trí_tuệ, tgpl, thanh_xuân, chi_cục, kế_hoạch_hóa, tai_biến, mạch_máu, chóng_mặt, không_gian, tài_nguyên, vaccine, thích_ứng, bv, khởi_nghiệp, hạ_tầng, chuyên_khoa, gấp, đòi_hỏi, tâm_lý</t>
+  </si>
+  <si>
+    <t>xe_buýt, hcm, ứng_xử, hành_khách, dao, sài_gòn, thiên_phúc, vé, gia, công_viên, long_an, nghĩa_trang, vinhomes, dân_tộc_thiểu_số, cần_thơ, thủ_tục, phụ, chữ, điều_hành, thành_ủy</t>
   </si>
 </sst>
 </file>
@@ -407,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.06338244858247551</v>
+        <v>0.05519231025298888</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -437,7 +452,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.07958891982471013</v>
+        <v>0.04506391506698547</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -448,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08325664291590106</v>
+        <v>0.04522355405538522</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -459,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.07196068792729471</v>
+        <v>0.07000984439268859</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -470,7 +485,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1236115059409757</v>
+        <v>0.05731660445512395</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -481,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08423441261501131</v>
+        <v>0.07063198941712728</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -492,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2267091311875706</v>
+        <v>0.05737213427012768</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -503,7 +518,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09957259280063306</v>
+        <v>0.07386334149373902</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -514,7 +529,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.05925969600453467</v>
+        <v>0.08466741066482482</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -525,10 +540,65 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.09341874449115489</v>
+        <v>0.1076147969708675</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.08169396715426837</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.05238875946161723</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.04482927241014562</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.07913296880633242</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.05747611290596501</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
